--- a/ExcelDataDriven/src/test/java/resources/ExcelDataFile.xlsx
+++ b/ExcelDataDriven/src/test/java/resources/ExcelDataFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iamni\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C56FC3-20FA-457A-B65F-845C45F74BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8361D9-27E3-4FA2-9022-32F4CED907B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="18">
   <si>
     <t>sno</t>
   </si>
@@ -489,10 +489,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="9.9375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.0625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1:B7 C1:C7" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A86D2FDE-778E-47CA-B4D0-8F8470C87770}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -626,150 +727,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:E7" numberStoredAsText="1"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A86D2FDE-778E-47CA-B4D0-8F8470C87770}">
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
-  <cols>
-    <col min="1" max="1" width="5.5625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.9375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="7.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.0625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3">
-        <v>299</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="3">
-        <v>345</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="3">
-        <v>187</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="3">
-        <v>69</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="3">
-        <v>399</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="3">
-        <v>199</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>